--- a/biology/Histoire de la zoologie et de la botanique/Josef_Franz_Freyn/Josef_Franz_Freyn.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Josef_Franz_Freyn/Josef_Franz_Freyn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Josef Franz Freyn, né le 7 décembre 1845 à Prague (Bohême, Empire d'Autriche) et mort le 16 janvier 1903 à Smichow[1],[2] (Bohême, Autriche-Hongrie), est un botaniste autrichien de Bohême qui s'est spécialisé dans les spermatophytes et notamment dans les plantes de Hongrie, d'Istrie et d'Orient.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Josef Franz Freyn, né le 7 décembre 1845 à Prague (Bohême, Empire d'Autriche) et mort le 16 janvier 1903 à Smichow, (Bohême, Autriche-Hongrie), est un botaniste autrichien de Bohême qui s'est spécialisé dans les spermatophytes et notamment dans les plantes de Hongrie, d'Istrie et d'Orient.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Josef Franz Freyn poursuit ses études secondaires à Prague au Gymnasium entre 1856 et 1862, puis au Technikum entre 1862 et 1865 et enfin continue ses études supérieures à Vienne dans une grande école du génie civil, devenant ingénieur dans le domaine de la construction de lignes de chemin de fer dans le royaume de Hongrie (Autriche-Hongrie). Il se passionne également pour la botanique, qu'il exerce comme amateur éclairé et se constitue un herbier en Hongrie, puis il fait de même en Istrie, où il supervise la construction de lignes de chemin de fer entre 1874 et 1878. Il retourne à Prague en 1881, où il est propriétaire d'une entreprise de construction.
-Il a été l'auteur de nombreuses publications, en particulier dans le Bulletin de l'Herbier Boissier. Il a défini plusieurs genres botaniques et décrit de nouvelles espèces, appartenant par exemple aux genres Allium, Bunium, Delphinium, Fritillaria, Geranium, Haplophyllum, Hypericum Silene, Vicia, etc.[3], surtout originaires d'Asie centrale, du Pamir et du Turkestan russe.
+Il a été l'auteur de nombreuses publications, en particulier dans le Bulletin de l'Herbier Boissier. Il a défini plusieurs genres botaniques et décrit de nouvelles espèces, appartenant par exemple aux genres Allium, Bunium, Delphinium, Fritillaria, Geranium, Haplophyllum, Hypericum Silene, Vicia, etc., surtout originaires d'Asie centrale, du Pamir et du Turkestan russe.
 Une partie de son herbier est conservée à l'université de Göttingen.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Die Flora von Süd-Istrien ... Aus den Abhandlungen der K.K. zoologisch-botanischen Gesellschaft in Wien, 1877 [i.e. 1878]. Oct
 (de) Zur Flora des Monte Maggiore in Istrien, 1879. Oct
